--- a/xlsx/发展经济学_intext.xlsx
+++ b/xlsx/发展经济学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>经济学</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_发展经济学</t>
+    <t>政策_政策_货币政策_发展经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非洲經濟</t>
+    <t>非洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>亞洲經濟</t>
+    <t>亚洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共經濟學</t>
+    <t>公共经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>農業經濟學</t>
+    <t>农业经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態經濟學</t>
+    <t>生态经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會經濟學</t>
+    <t>社会经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>封閉經濟</t>
+    <t>封闭经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非正式經濟</t>
+    <t>非正式经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%B0%8E%E5%90%91%E5%9E%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>資源導向型經濟</t>
+    <t>资源导向型经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Economics_sidebar</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E4%BC%AF%E7%89%B9%C2%B7%E8%B5%AB%E5%B8%8C%E6%9B%BC</t>
   </si>
   <si>
-    <t>阿爾伯特·赫希曼</t>
+    <t>阿尔伯特·赫希曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E7%90%86%E8%AE%BA</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E5%AD%A6%E6%B4%BE%E4%B8%8E%E5%92%B8%E6%B0%B4%E5%AD%A6%E6%B4%BE</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IS-LM%E6%A8%A1%E5%9E%8B</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瓊·羅賓遜</t>
+    <t>琼·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E8%90%A8%E9%87%91%E7%89%B9</t>
@@ -683,13 +683,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
